--- a/biology/Botanique/Souvenir_de_Pierre_Vibert/Souvenir_de_Pierre_Vibert.xlsx
+++ b/biology/Botanique/Souvenir_de_Pierre_Vibert/Souvenir_de_Pierre_Vibert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Souvenir de Pierre Vibert' est un cultivar de rosier mousseux obtenu en 1867 par Moreau-Robert. Il est toujours présent dans les catalogues d'amateurs de roses romantiques. Il rend hommage au rosiériste Jean-Pierre Vibert.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier mousseux ancien est plébiscité par les amateurs pour ses fleurs légèrement bombées (26-40 pétales) d'un rouge foncé virant sur le carmin et le violet[1]. Leur calice et leurs pédoncules sont bien mousseux. Son buisson présente des rameaux souples au feuillage dense et s'élève à 100 cm en moyenne[2], parfois plus. Sa floraison généreuse a lieu à la fin du printemps, mais il peut y avoir une légère remontée en été si le climat est favorable. Il exhale un agréable parfum de rose centfeuilles[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier mousseux ancien est plébiscité par les amateurs pour ses fleurs légèrement bombées (26-40 pétales) d'un rouge foncé virant sur le carmin et le violet. Leur calice et leurs pédoncules sont bien mousseux. Son buisson présente des rameaux souples au feuillage dense et s'élève à 100 cm en moyenne, parfois plus. Sa floraison généreuse a lieu à la fin du printemps, mais il peut y avoir une légère remontée en été si le climat est favorable. Il exhale un agréable parfum de rose centfeuilles. 
 Il résiste à des températures de -15° à -20°. Il est vigoureux. 
 Le public peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen en Allemagne.
 </t>
